--- a/worldometer/processed_worldometer_data.xlsx
+++ b/worldometer/processed_worldometer_data.xlsx
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="M2">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N2">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="3">
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E3">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I3">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J3">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="M3">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N3">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="4">
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E4">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I4">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J4">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="M4">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N4">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I5">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E6">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I6">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J6">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="M6">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N6">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="7">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E7">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I7">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J7">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="M7">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N7">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="8">
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E8">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I8">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J8">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="M8">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N8">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="9">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J9">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="M9">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N9">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="10">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E10">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I10">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J10">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="M10">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N10">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="11">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E11">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I11">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J11">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="M11">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N11">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="12">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K12">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="M12">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N12">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="13">
@@ -938,31 +938,31 @@
         </is>
       </c>
       <c r="C13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K13">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="M13">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N13">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="14">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E14">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I14">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J14">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="M14">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N14">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="15">
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="M15">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N15">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="16">
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1088,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K16">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="M16">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N16">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="17">
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E17">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I17">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J17">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="M17">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N17">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="18">
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E18">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I18">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J18">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="M18">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N18">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="19">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E19">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I19">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J19">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="M19">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N19">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="20">
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E20">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I20">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J20">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="M20">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N20">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="21">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E21">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1313,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I21">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J21">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="M21">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N21">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="22">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E22">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I22">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J22">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="M22">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N22">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="23">
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E23">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I23">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J23">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="M23">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N23">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="24">
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E24">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I24">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J24">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="M24">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N24">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="25">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E25">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I25">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="M25">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N25">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="26">
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E26">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I26">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J26">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="M26">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N26">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="27">
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E27">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I27">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J27">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="M27">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N27">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="28">
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E28">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I28">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J28">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="M28">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N28">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="29">
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E29">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J29">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="M29">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N29">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="30">
@@ -1703,31 +1703,31 @@
         </is>
       </c>
       <c r="C30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K30">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="M30">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N30">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="31">
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E31">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I31">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J31">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="M31">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N31">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="32">
@@ -1796,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E32">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I32">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J32">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="M32">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N32">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="33">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E33">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I33">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="M33">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N33">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="34">
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E34">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I34">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J34">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="M34">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N34">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="35">
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E35">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1943,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I35">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J35">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="M35">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N35">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="36">
@@ -1973,31 +1973,31 @@
         </is>
       </c>
       <c r="C36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K36">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="M36">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N36">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="37">
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E37">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I37">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J37">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="M37">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N37">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="38">
@@ -2063,28 +2063,28 @@
         </is>
       </c>
       <c r="C38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J38">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="M38">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N38">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="39">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F39">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G39">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="I39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="J39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K39">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="M39">
-        <v>-474</v>
+        <v>-481</v>
       </c>
       <c r="N39">
-        <v>-474</v>
+        <v>-481</v>
       </c>
     </row>
     <row r="40">
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E40">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I40">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J40">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="M40">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N40">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="41">
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E41">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I41">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J41">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="M41">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N41">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="42">
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E42">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I42">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J42">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="M42">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N42">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="43">
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E43">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I43">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J43">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="M43">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N43">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="44">
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E44">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2348,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I44">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J44">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="M44">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N44">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="45">
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E45">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I45">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J45">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="M45">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N45">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="46">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E46">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2438,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I46">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J46">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         </is>
       </c>
       <c r="M46">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N46">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="47">
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E47">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2483,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I47">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J47">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="M47">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N47">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="48">
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E48">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I48">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J48">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         </is>
       </c>
       <c r="M48">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N48">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="49">
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E49">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I49">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J49">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="M49">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N49">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="50">
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E50">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2618,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I50">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J50">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="M50">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N50">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="51">
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E51">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I51">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J51">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="M51">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N51">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="52">
@@ -2693,31 +2693,31 @@
         </is>
       </c>
       <c r="C52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K52">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="M52">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N52">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="53">
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E53">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2753,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I53">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J53">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="M53">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N53">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="54">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I54">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="C55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K55">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="M55">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N55">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="56">
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E56">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I56">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J56">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="M56">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N56">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="57">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E57">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I57">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J57">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="M57">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N57">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="58">
@@ -2966,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E58">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I58">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J58">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         </is>
       </c>
       <c r="M58">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N58">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="59">
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E59">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I59">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J59">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         </is>
       </c>
       <c r="M59">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N59">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="60">
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E60">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3068,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I60">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J60">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="M60">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N60">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="61">
@@ -3101,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E61">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I61">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="M61">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N61">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="62">
@@ -3146,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E62">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I62">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J62">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="M62">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N62">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="63">
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E63">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3203,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I63">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J63">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="M63">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N63">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="64">
@@ -3236,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E64">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I64">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J64">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="M64">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N64">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="65">
@@ -3278,31 +3278,31 @@
         </is>
       </c>
       <c r="C65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K65">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="M65">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N65">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="66">
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E66">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3338,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I66">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J66">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="M66">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N66">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="67">
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I67">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3413,31 +3413,31 @@
         </is>
       </c>
       <c r="C68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K68">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="M68">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N68">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="69">
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E69">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I69">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         </is>
       </c>
       <c r="M69">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N69">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="70">
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E70">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I70">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J70">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="M70">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N70">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="71">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E71">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I71">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J71">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="M71">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N71">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="72">
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E72">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3608,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I72">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J72">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="M72">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N72">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="73">
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E73">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I73">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J73">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         </is>
       </c>
       <c r="M73">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N73">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="74">
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E74">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3698,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I74">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J74">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="M74">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N74">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="75">
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J75">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         </is>
       </c>
       <c r="M75">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N75">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="76">
@@ -3776,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E76">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I76">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J76">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="M76">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N76">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="77">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E77">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I77">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J77">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="M77">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N77">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="78">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E78">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I78">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J78">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="M78">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N78">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="79">
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E79">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3923,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I79">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J79">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="M79">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N79">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="80">
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E80">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3968,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I80">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J80">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         </is>
       </c>
       <c r="M80">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N80">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="81">
@@ -4001,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E81">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4013,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I81">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="M81">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N81">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="82">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I82">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4091,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E83">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I83">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J83">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="M83">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N83">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="84">
@@ -4136,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E84">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4148,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I84">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J84">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="M84">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N84">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="85">
@@ -4181,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E85">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4193,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I85">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J85">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="M85">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N85">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="86">
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E86">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4238,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I86">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J86">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4255,10 +4255,10 @@
         </is>
       </c>
       <c r="M86">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N86">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="87">
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E87">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4283,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I87">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J87">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         </is>
       </c>
       <c r="M87">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N87">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="88">
@@ -4316,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E88">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I88">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J88">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="M88">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N88">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="89">
@@ -4361,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E89">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4373,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I89">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J89">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="M89">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N89">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="90">
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E90">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4418,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I90">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J90">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="M90">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N90">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="91">
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E91">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4463,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I91">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J91">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="M91">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N91">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="92">
@@ -4496,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E92">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4508,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I92">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J92">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="M92">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N92">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="93">
@@ -4538,28 +4538,28 @@
         </is>
       </c>
       <c r="C93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J93">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         </is>
       </c>
       <c r="M93">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N93">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="94">
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E94">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I94">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J94">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="M94">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N94">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="95">
@@ -4628,31 +4628,31 @@
         </is>
       </c>
       <c r="C95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K95">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4660,10 +4660,10 @@
         </is>
       </c>
       <c r="M95">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N95">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="96">
@@ -4676,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E96">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4688,13 +4688,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I96">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J96">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         </is>
       </c>
       <c r="M96">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N96">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="97">
@@ -4718,31 +4718,31 @@
         </is>
       </c>
       <c r="C97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K97">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="M97">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N97">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="98">
@@ -4763,31 +4763,31 @@
         </is>
       </c>
       <c r="C98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K98">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="M98">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N98">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="99">
@@ -4808,31 +4808,31 @@
         </is>
       </c>
       <c r="C99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K99">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="M99">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N99">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="100">
@@ -4856,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E100">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4868,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I100">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J100">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4885,10 +4885,10 @@
         </is>
       </c>
       <c r="M100">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N100">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="101">
@@ -4901,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E101">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4913,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I101">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J101">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="M101">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N101">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="102">
@@ -4943,28 +4943,28 @@
         </is>
       </c>
       <c r="C102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J102">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         </is>
       </c>
       <c r="M102">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N102">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="103">
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E103">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5003,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I103">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J103">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5020,10 +5020,10 @@
         </is>
       </c>
       <c r="M103">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N103">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="104">
@@ -5036,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E104">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -5048,13 +5048,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I104">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J104">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         </is>
       </c>
       <c r="M104">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N104">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="105">
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E105">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5093,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I105">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J105">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="M105">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N105">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="106">
@@ -5126,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E106">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5138,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I106">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J106">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="M106">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N106">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="107">
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I107">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5216,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E108">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5228,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I108">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J108">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         </is>
       </c>
       <c r="M108">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N108">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="109">
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E109">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5273,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I109">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J109">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="M109">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N109">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="110">
@@ -5306,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E110">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5318,13 +5318,13 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I110">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         </is>
       </c>
       <c r="M110">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N110">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="111">
@@ -5351,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E111">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I111">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J111">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="M111">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N111">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="112">
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E112">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5408,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I112">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J112">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="M112">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N112">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="113">
@@ -5441,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E113">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5453,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I113">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J113">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="M113">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N113">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="114">
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E114">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5498,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I114">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J114">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="M114">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N114">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="115">
@@ -5531,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E115">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5543,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I115">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J115">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="M115">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N115">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="116">
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E116">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5588,13 +5588,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I116">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J116">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="M116">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N116">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="117">
@@ -5621,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E117">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5633,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I117">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J117">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="M117">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N117">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="118">
@@ -5663,28 +5663,28 @@
         </is>
       </c>
       <c r="C118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J118">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="M118">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N118">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="119">
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E119">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5723,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I119">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J119">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="M119">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N119">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="120">
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5768,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I120">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E121">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5813,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I121">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J121">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="M121">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N121">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="122">
@@ -5846,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E122">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5858,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I122">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J122">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="M122">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N122">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="123">
@@ -5891,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E123">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I123">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J123">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5920,10 +5920,10 @@
         </is>
       </c>
       <c r="M123">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N123">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="124">
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E124">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5948,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I124">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J124">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="M124">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N124">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="125">
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E125">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5993,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I125">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J125">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         </is>
       </c>
       <c r="M125">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N125">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="126">
@@ -6023,28 +6023,28 @@
         </is>
       </c>
       <c r="C126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J126">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -6055,10 +6055,10 @@
         </is>
       </c>
       <c r="M126">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N126">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="127">
@@ -6071,10 +6071,10 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E127">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -6083,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I127">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J127">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="M127">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N127">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="128">
@@ -6116,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E128">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6128,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I128">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J128">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="M128">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N128">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="129">
@@ -6161,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E129">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I129">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J129">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="M129">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N129">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="130">
@@ -6206,10 +6206,10 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E130">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I130">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J130">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="M130">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N130">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="131">
@@ -6251,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E131">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I131">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J131">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -6280,10 +6280,10 @@
         </is>
       </c>
       <c r="M131">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N131">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="132">
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E132">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I132">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J132">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="M132">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N132">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="133">
@@ -6341,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E133">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6353,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I133">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J133">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="M133">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N133">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="134">
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E134">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6398,13 +6398,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I134">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J134">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -6415,10 +6415,10 @@
         </is>
       </c>
       <c r="M134">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N134">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="135">
@@ -6431,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E135">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6443,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I135">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -6460,10 +6460,10 @@
         </is>
       </c>
       <c r="M135">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N135">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="136">
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E136">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6488,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I136">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J136">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="M136">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N136">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="137">
@@ -6521,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E137">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I137">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J137">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         </is>
       </c>
       <c r="M137">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N137">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="138">
@@ -6566,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E138">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I138">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J138">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="M138">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N138">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="139">
@@ -6611,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E139">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I139">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J139">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         </is>
       </c>
       <c r="M139">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N139">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="140">
@@ -6656,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E140">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I140">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J140">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6685,10 +6685,10 @@
         </is>
       </c>
       <c r="M140">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N140">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="141">
@@ -6701,10 +6701,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E141">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6713,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I141">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J141">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         </is>
       </c>
       <c r="M141">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N141">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="142">
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6758,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I142">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -6791,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E143">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6803,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I143">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J143">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6820,10 +6820,10 @@
         </is>
       </c>
       <c r="M143">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N143">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="144">
@@ -6836,10 +6836,10 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6865,10 +6865,10 @@
         </is>
       </c>
       <c r="M144">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N144">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="145">
@@ -6881,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E145">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I145">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J145">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="M145">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N145">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="146">
@@ -6926,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E146">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6938,13 +6938,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I146">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J146">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         </is>
       </c>
       <c r="M146">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N146">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="147">
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E147">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6983,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I147">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J147">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -7000,10 +7000,10 @@
         </is>
       </c>
       <c r="M147">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N147">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="148">
@@ -7016,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E148">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I148">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J148">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         </is>
       </c>
       <c r="M148">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N148">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="149">
@@ -7061,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E149">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -7073,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I149">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J149">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -7090,10 +7090,10 @@
         </is>
       </c>
       <c r="M149">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N149">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="150">
@@ -7106,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E150">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I150">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J150">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="M150">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N150">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="151">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="C151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J151">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="M151">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N151">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="152">
@@ -7193,31 +7193,31 @@
         </is>
       </c>
       <c r="C152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K152">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="M152">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N152">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="153">
@@ -7241,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E153">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I153">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J153">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="M153">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N153">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="154">
@@ -7286,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E154">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7298,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I154">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J154">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="M154">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N154">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="155">
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E155">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I155">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J155">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -7360,10 +7360,10 @@
         </is>
       </c>
       <c r="M155">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N155">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="156">
@@ -7373,31 +7373,31 @@
         </is>
       </c>
       <c r="C156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K156">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="M156">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N156">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="157">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E157">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7433,13 +7433,13 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I157">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J157">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -7450,10 +7450,10 @@
         </is>
       </c>
       <c r="M157">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N157">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="158">
@@ -7466,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E158">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I158">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J158">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -7495,10 +7495,10 @@
         </is>
       </c>
       <c r="M158">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N158">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="159">
@@ -7511,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E159">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7523,13 +7523,13 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I159">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J159">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -7540,10 +7540,10 @@
         </is>
       </c>
       <c r="M159">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N159">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="160">
@@ -7556,10 +7556,10 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E160">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7568,13 +7568,13 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I160">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J160">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="M160">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N160">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="161">
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E161">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7613,13 +7613,13 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I161">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J161">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="M161">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N161">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="162">
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E162">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I162">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J162">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="M162">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N162">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="163">
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E163">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7703,13 +7703,13 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I163">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J163">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -7720,10 +7720,10 @@
         </is>
       </c>
       <c r="M163">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N163">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="164">
@@ -7733,28 +7733,28 @@
         </is>
       </c>
       <c r="C164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J164">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="M164">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N164">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="165">
@@ -7781,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E165">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7793,13 +7793,13 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I165">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J165">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="M165">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N165">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="166">
@@ -7823,28 +7823,28 @@
         </is>
       </c>
       <c r="C166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J166">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         </is>
       </c>
       <c r="M166">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N166">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="167">
@@ -7871,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E167">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -7883,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I167">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J167">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         </is>
       </c>
       <c r="M167">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N167">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="168">
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E168">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -7928,13 +7928,13 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I168">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J168">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="M168">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N168">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="169">
@@ -7961,10 +7961,10 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E169">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I169">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J169">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="M169">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N169">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="170">
@@ -8006,10 +8006,10 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E170">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -8018,13 +8018,13 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I170">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J170">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -8035,10 +8035,10 @@
         </is>
       </c>
       <c r="M170">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N170">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="171">
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E171">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I171">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J171">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="M171">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N171">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="172">
@@ -8096,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E172">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -8108,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I172">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J172">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -8125,10 +8125,10 @@
         </is>
       </c>
       <c r="M172">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N172">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="173">
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E173">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -8153,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I173">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J173">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -8170,10 +8170,10 @@
         </is>
       </c>
       <c r="M173">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N173">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="174">
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -8198,10 +8198,10 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I174">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E175">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I175">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J175">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="M175">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N175">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="176">
@@ -8276,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E176">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -8288,13 +8288,13 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I176">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J176">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -8305,10 +8305,10 @@
         </is>
       </c>
       <c r="M176">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N176">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="177">
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E177">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I177">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J177">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="M177">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N177">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="178">
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E178">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I178">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J178">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         </is>
       </c>
       <c r="M178">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N178">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="179">
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E179">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8423,13 +8423,13 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I179">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J179">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="M179">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N179">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="180">
@@ -8456,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E180">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I180">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J180">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="M180">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N180">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="181">
@@ -8501,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8513,16 +8513,16 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -8530,10 +8530,10 @@
         </is>
       </c>
       <c r="M181">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N181">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="182">
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E182">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I182">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J182">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="M182">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N182">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="183">
@@ -8591,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E183">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8603,13 +8603,13 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I183">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J183">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="M183">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N183">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="184">
@@ -8636,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E184">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -8648,13 +8648,13 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I184">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J184">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -8665,10 +8665,10 @@
         </is>
       </c>
       <c r="M184">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N184">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="185">
@@ -8681,10 +8681,10 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E185">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I185">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J185">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         </is>
       </c>
       <c r="M185">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N185">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="186">
@@ -8726,10 +8726,10 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E186">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -8738,13 +8738,13 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I186">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J186">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         </is>
       </c>
       <c r="M186">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N186">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="187">
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E187">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I187">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J187">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -8800,10 +8800,10 @@
         </is>
       </c>
       <c r="M187">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N187">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="188">
@@ -8816,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E188">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8828,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I188">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J188">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -8845,10 +8845,10 @@
         </is>
       </c>
       <c r="M188">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N188">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="189">
@@ -8858,28 +8858,28 @@
         </is>
       </c>
       <c r="C189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J189">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -8890,10 +8890,10 @@
         </is>
       </c>
       <c r="M189">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N189">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="190">
@@ -8906,10 +8906,10 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E190">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -8918,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I190">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J190">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         </is>
       </c>
       <c r="M190">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N190">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="191">
@@ -8951,10 +8951,10 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E191">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -8963,13 +8963,13 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I191">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J191">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -8980,10 +8980,10 @@
         </is>
       </c>
       <c r="M191">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N191">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="192">
@@ -8996,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E192">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I192">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J192">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -9025,10 +9025,10 @@
         </is>
       </c>
       <c r="M192">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N192">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="193">
@@ -9038,31 +9038,31 @@
         </is>
       </c>
       <c r="C193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K193">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="M193">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N193">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="194">
@@ -9086,10 +9086,10 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E194">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I194">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J194">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -9115,10 +9115,10 @@
         </is>
       </c>
       <c r="M194">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N194">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="195">
@@ -9131,10 +9131,10 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E195">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -9143,13 +9143,13 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I195">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J195">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -9160,10 +9160,10 @@
         </is>
       </c>
       <c r="M195">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N195">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="196">
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E196">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -9188,13 +9188,13 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I196">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J196">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -9205,10 +9205,10 @@
         </is>
       </c>
       <c r="M196">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N196">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="197">
@@ -9221,10 +9221,10 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E197">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I197">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J197">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="M197">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N197">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="198">
@@ -9266,10 +9266,10 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E198">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I198">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J198">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -9295,10 +9295,10 @@
         </is>
       </c>
       <c r="M198">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N198">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="199">
@@ -9311,25 +9311,25 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J199">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="M199">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N199">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="200">
@@ -9356,10 +9356,10 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E200">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -9368,13 +9368,13 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I200">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J200">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -9385,10 +9385,10 @@
         </is>
       </c>
       <c r="M200">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N200">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="201">
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I201">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -9446,10 +9446,10 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E202">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -9458,13 +9458,13 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I202">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J202">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="M202">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N202">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="203">
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E203">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -9503,13 +9503,13 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I203">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J203">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -9520,10 +9520,10 @@
         </is>
       </c>
       <c r="M203">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N203">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="204">
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E204">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -9548,10 +9548,10 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I204">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -9565,10 +9565,10 @@
         </is>
       </c>
       <c r="M204">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N204">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="205">
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E205">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -9593,13 +9593,13 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I205">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J205">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="M205">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N205">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="206">
@@ -9626,10 +9626,10 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E206">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I206">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J206">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         </is>
       </c>
       <c r="M206">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N206">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="207">
@@ -9671,10 +9671,10 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E207">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -9683,13 +9683,13 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I207">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J207">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -9700,10 +9700,10 @@
         </is>
       </c>
       <c r="M207">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N207">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="208">
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E208">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I208">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J208">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         </is>
       </c>
       <c r="M208">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N208">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="209">
@@ -9761,10 +9761,10 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E209">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -9773,13 +9773,13 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I209">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J209">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="M209">
-        <v>-450</v>
+        <v>-457</v>
       </c>
       <c r="N209">
-        <v>-450</v>
+        <v>-457</v>
       </c>
     </row>
   </sheetData>
